--- a/inst/extdata/CopyOfData/hair1958.xlsx
+++ b/inst/extdata/CopyOfData/hair1958.xlsx
@@ -1,26 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjones/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="26680" windowHeight="13140" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="2340" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+  <si>
+    <t>TABLE 14: Timber products: Production, imports, exports, and new supply of lumber in the United States, specified years, 1799-1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year
+</t>
+  </si>
+  <si>
+    <t>Production1</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total
+(1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softwoods
+(2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwoods
+(3)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total
+(4)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softwoods
+(5)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwoods
+(6)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed
+(7)
+</t>
+  </si>
+  <si>
+    <t>Mixed Percent of Total</t>
+  </si>
+  <si>
+    <t>Estimated Full Softwood Percent of Total</t>
+  </si>
+  <si>
+    <t>Estimated Full Hardwood Percent of Total</t>
+  </si>
+  <si>
+    <t>Estimated Softwood Imports</t>
+  </si>
+  <si>
+    <t>Estimated Hardwood Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total
+(8)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softwoods
+(9)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwoods
+(10)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed
+(11)
+</t>
+  </si>
+  <si>
+    <t>Estimated Softwood Percent of Total</t>
+  </si>
+  <si>
+    <t>Estimated Hardwood Percent of Total</t>
+  </si>
+  <si>
+    <t>Estimated Softwood Exports</t>
+  </si>
+  <si>
+    <t>Estimated Hardwood Exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New
+ Supply
+(12)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per capita
+use
+(13)
+</t>
+  </si>
+  <si>
+    <t>Million
+Board feet</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Board
+feet</t>
+  </si>
+  <si>
+    <t>1  Estimated by the Forest Service except years proceded by an Asterisk, for which data are those published by the Bureau of Census.</t>
+  </si>
+  <si>
+    <t>See eslanatory notes in appenix.</t>
+  </si>
+  <si>
+    <t>(Dashes or dots in column means "Data not available" and are used in many other tables in series.)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,12 +191,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -81,39 +206,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,4274 +317,5434 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Y76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>1799</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>263</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>1809</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>344</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>1819</v>
+      </c>
+      <c r="B7">
+        <v>550</v>
+      </c>
+      <c r="C7">
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>1829</v>
+      </c>
+      <c r="B8">
+        <v>850</v>
+      </c>
+      <c r="C8">
+        <v>702</v>
+      </c>
+      <c r="D8">
+        <v>148</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>1839</v>
+      </c>
+      <c r="B9">
+        <v>1604</v>
+      </c>
+      <c r="C9">
+        <v>1275</v>
+      </c>
+      <c r="D9">
+        <v>329</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>1849</v>
+      </c>
+      <c r="B10">
+        <v>5392</v>
+      </c>
+      <c r="C10">
+        <v>4075</v>
+      </c>
+      <c r="D10">
+        <v>1317</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>1859</v>
+      </c>
+      <c r="B11">
+        <v>8029</v>
+      </c>
+      <c r="C11">
+        <v>5802</v>
+      </c>
+      <c r="D11">
+        <v>2227</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>1869</v>
+      </c>
+      <c r="B12">
+        <v>12756</v>
+      </c>
+      <c r="C12">
+        <v>9253</v>
+      </c>
+      <c r="D12">
+        <v>3503</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>1879</v>
+      </c>
+      <c r="B13">
+        <v>18125</v>
+      </c>
+      <c r="C13">
+        <v>13334</v>
+      </c>
+      <c r="D13">
+        <v>4791</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>1889</v>
+      </c>
+      <c r="B14">
+        <v>27039</v>
+      </c>
+      <c r="C14">
+        <v>20025</v>
+      </c>
+      <c r="D14">
+        <v>7014</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>34263</v>
+      </c>
+      <c r="X14">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>1899</v>
+      </c>
+      <c r="B15">
         <v>35078</v>
       </c>
-      <c r="B1">
+      <c r="C15">
         <v>26372</v>
       </c>
-      <c r="C1">
+      <c r="D15">
         <v>8706</v>
       </c>
-      <c r="D1">
+      <c r="E15">
         <v>674</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>94.52753533209787</v>
       </c>
-      <c r="J1">
+      <c r="K15">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K1">
+      <c r="L15">
         <v>637.1155881383396</v>
       </c>
-      <c r="L1">
+      <c r="M15">
         <v>36.884411861660467</v>
       </c>
-      <c r="M1">
+      <c r="N15">
         <v>1489</v>
       </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>85.862622135886994</v>
       </c>
-      <c r="S1">
+      <c r="T15">
         <v>14.137377864113015</v>
       </c>
-      <c r="T1">
+      <c r="U15">
         <v>1278.4944436033572</v>
       </c>
-      <c r="U1">
+      <c r="V15">
         <v>210.50555639664279</v>
       </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>1900</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>525</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>94.52753533209787</v>
       </c>
-      <c r="J2">
+      <c r="K16">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K2">
+      <c r="L16">
         <v>496.26956049351378</v>
       </c>
-      <c r="L2">
+      <c r="M16">
         <v>28.73043950648627</v>
       </c>
-      <c r="M2">
+      <c r="N16">
         <v>1662</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>85.862622135886994</v>
       </c>
-      <c r="S2">
+      <c r="T16">
         <v>14.137377864113015</v>
       </c>
-      <c r="T2">
+      <c r="U16">
         <v>1427.0367798984419</v>
       </c>
-      <c r="U2">
+      <c r="V16">
         <v>234.96322010155831</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17">
+        <v>1901</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>587</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>94.52753533209787</v>
       </c>
-      <c r="J3">
+      <c r="K17">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K3">
+      <c r="L17">
         <v>554.87663239941446</v>
       </c>
-      <c r="L3">
+      <c r="M17">
         <v>32.123367600585603</v>
       </c>
-      <c r="M3">
+      <c r="N17">
         <v>1543</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>85.862622135886994</v>
       </c>
-      <c r="S3">
+      <c r="T17">
         <v>14.137377864113015</v>
       </c>
-      <c r="T3">
+      <c r="U17">
         <v>1324.8602595567363</v>
       </c>
-      <c r="U3">
+      <c r="V17">
         <v>218.13974044326383</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18">
+        <v>1902</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>737</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>94.52753533209787</v>
       </c>
-      <c r="J4">
+      <c r="K18">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K4">
+      <c r="L18">
         <v>696.66793539756134</v>
       </c>
-      <c r="L4">
+      <c r="M18">
         <v>40.33206460243882</v>
       </c>
-      <c r="M4">
+      <c r="N18">
         <v>1441</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>85.862622135886994</v>
       </c>
-      <c r="S4">
+      <c r="T18">
         <v>14.137377864113015</v>
       </c>
-      <c r="T4">
+      <c r="U18">
         <v>1237.2803849781315</v>
       </c>
-      <c r="U4">
+      <c r="V18">
         <v>203.71961502186855</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19">
+        <v>1903</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>649</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>94.52753533209787</v>
       </c>
-      <c r="J5">
+      <c r="K19">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K5">
+      <c r="L19">
         <v>613.4837043053152</v>
       </c>
-      <c r="L5">
+      <c r="M19">
         <v>35.516295694684935</v>
       </c>
-      <c r="M5">
+      <c r="N19">
         <v>1893</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>85.862622135886994</v>
       </c>
-      <c r="S5">
+      <c r="T19">
         <v>14.137377864113015</v>
       </c>
-      <c r="T5">
+      <c r="U19">
         <v>1625.3794370323408</v>
       </c>
-      <c r="U5">
+      <c r="V19">
         <v>267.6205629676594</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20">
+        <v>1904</v>
+      </c>
+      <c r="B20">
         <v>43000</v>
       </c>
-      <c r="B6">
+      <c r="C20">
         <v>32538</v>
       </c>
-      <c r="C6">
+      <c r="D20">
         <v>10462</v>
       </c>
-      <c r="D6">
+      <c r="E20">
         <v>631</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>94.52753533209787</v>
       </c>
-      <c r="J6">
+      <c r="K20">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K6">
+      <c r="L20">
         <v>596.46874794553753</v>
       </c>
-      <c r="L6">
+      <c r="M20">
         <v>34.531252054462541</v>
       </c>
-      <c r="M6">
+      <c r="N20">
         <v>1958</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <v>85.862622135886994</v>
       </c>
-      <c r="S6">
+      <c r="T20">
         <v>14.137377864113015</v>
       </c>
-      <c r="T6">
+      <c r="U20">
         <v>1681.1901414206673</v>
       </c>
-      <c r="U6">
+      <c r="V20">
         <v>276.80985857933285</v>
       </c>
-      <c r="V6">
+      <c r="W20">
         <v>41673</v>
       </c>
-      <c r="W6">
+      <c r="X20">
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <v>1905</v>
+      </c>
+      <c r="B21">
         <v>43500</v>
       </c>
-      <c r="B7">
+      <c r="C21">
         <v>32960</v>
       </c>
-      <c r="C7">
+      <c r="D21">
         <v>10540</v>
       </c>
-      <c r="D7">
+      <c r="E21">
         <v>801</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>94.52753533209787</v>
       </c>
-      <c r="J7">
+      <c r="K21">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K7">
+      <c r="L21">
         <v>757.16555801010395</v>
       </c>
-      <c r="L7">
+      <c r="M21">
         <v>43.834441989896192</v>
       </c>
-      <c r="M7">
+      <c r="N21">
         <v>1782</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>85.862622135886994</v>
       </c>
-      <c r="S7">
+      <c r="T21">
         <v>14.137377864113015</v>
       </c>
-      <c r="T7">
+      <c r="U21">
         <v>1530.0719264615061</v>
       </c>
-      <c r="U7">
+      <c r="V21">
         <v>251.92807353849395</v>
       </c>
-      <c r="V7">
+      <c r="W21">
         <v>42519</v>
       </c>
-      <c r="W7">
+      <c r="X21">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <v>1906</v>
+      </c>
+      <c r="B22">
         <v>46000</v>
       </c>
-      <c r="B8">
+      <c r="C22">
         <v>34900</v>
       </c>
-      <c r="C8">
+      <c r="D22">
         <v>11100</v>
       </c>
-      <c r="D8">
+      <c r="E22">
         <v>1009</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>94.52753533209787</v>
       </c>
-      <c r="J8">
+      <c r="K22">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K8">
+      <c r="L22">
         <v>953.78283150086747</v>
       </c>
-      <c r="L8">
+      <c r="M22">
         <v>55.217168499132661</v>
       </c>
-      <c r="M8">
+      <c r="N22">
         <v>2087</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>85.862622135886994</v>
       </c>
-      <c r="S8">
+      <c r="T22">
         <v>14.137377864113015</v>
       </c>
-      <c r="T8">
+      <c r="U22">
         <v>1791.9529239759615</v>
       </c>
-      <c r="U8">
+      <c r="V22">
         <v>295.04707602403863</v>
       </c>
-      <c r="V8">
+      <c r="W22">
         <v>44922</v>
       </c>
-      <c r="W8">
+      <c r="X22">
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="23" spans="1:24">
+      <c r="A23">
+        <v>1907</v>
+      </c>
+      <c r="B23">
         <v>46000</v>
       </c>
-      <c r="B9">
+      <c r="C23">
         <v>34946</v>
       </c>
-      <c r="C9">
+      <c r="D23">
         <v>11054</v>
       </c>
-      <c r="D9">
+      <c r="E23">
         <v>907</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>94.52753533209787</v>
       </c>
-      <c r="J9">
+      <c r="K23">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K9">
+      <c r="L23">
         <v>857.36474546212764</v>
       </c>
-      <c r="L9">
+      <c r="M23">
         <v>49.63525453787247</v>
       </c>
-      <c r="M9">
+      <c r="N23">
         <v>2270</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>85.862622135886994</v>
       </c>
-      <c r="S9">
+      <c r="T23">
         <v>14.137377864113015</v>
       </c>
-      <c r="T9">
+      <c r="U23">
         <v>1949.0815224846347</v>
       </c>
-      <c r="U9">
+      <c r="V23">
         <v>320.91847751536545</v>
       </c>
-      <c r="V9">
+      <c r="W23">
         <v>44637</v>
       </c>
-      <c r="W9">
+      <c r="X23">
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <v>1908</v>
+      </c>
+      <c r="B24">
         <v>42000</v>
       </c>
-      <c r="B10">
+      <c r="C24">
         <v>31945</v>
       </c>
-      <c r="C10">
+      <c r="D24">
         <v>10055</v>
       </c>
-      <c r="D10">
+      <c r="E24">
         <v>769</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>94.52753533209787</v>
       </c>
-      <c r="J10">
+      <c r="K24">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K10">
+      <c r="L24">
         <v>726.91674670383259</v>
       </c>
-      <c r="L10">
+      <c r="M24">
         <v>42.083253296167506</v>
       </c>
-      <c r="M10">
+      <c r="N24">
         <v>1809</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>85.862622135886994</v>
       </c>
-      <c r="S10">
+      <c r="T24">
         <v>14.137377864113015</v>
       </c>
-      <c r="T10">
+      <c r="U24">
         <v>1553.2548344381958</v>
       </c>
-      <c r="U10">
+      <c r="V24">
         <v>255.74516556180444</v>
       </c>
-      <c r="V10">
+      <c r="W24">
         <v>40960</v>
       </c>
-      <c r="W10">
+      <c r="X24">
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <v>1909</v>
+      </c>
+      <c r="B25">
         <v>44510</v>
       </c>
-      <c r="B11">
+      <c r="C25">
         <v>33897</v>
       </c>
-      <c r="C11">
+      <c r="D25">
         <v>10613</v>
       </c>
-      <c r="D11">
+      <c r="E25">
         <v>991</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>94.52753533209787</v>
       </c>
-      <c r="J11">
+      <c r="K25">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K11">
+      <c r="L25">
         <v>936.76787514108992</v>
       </c>
-      <c r="L11">
+      <c r="M25">
         <v>54.232124858910275</v>
       </c>
-      <c r="M11">
+      <c r="N25">
         <v>1970</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>85.862622135886994</v>
       </c>
-      <c r="S11">
+      <c r="T25">
         <v>14.137377864113015</v>
       </c>
-      <c r="T11">
+      <c r="U25">
         <v>1691.4936560769736</v>
       </c>
-      <c r="U11">
+      <c r="V25">
         <v>278.50634392302641</v>
       </c>
-      <c r="V11">
+      <c r="W25">
         <v>43531</v>
       </c>
-      <c r="W11">
+      <c r="X25">
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="26" spans="1:24">
+      <c r="A26">
+        <v>1910</v>
+      </c>
+      <c r="B26">
         <v>44500</v>
       </c>
-      <c r="B12">
+      <c r="C26">
         <v>34029</v>
       </c>
-      <c r="C12">
+      <c r="D26">
         <v>10471</v>
       </c>
-      <c r="D12">
+      <c r="E26">
         <v>950</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>94.52753533209787</v>
       </c>
-      <c r="J12">
+      <c r="K26">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K12">
+      <c r="L26">
         <v>898.01158565492972</v>
       </c>
-      <c r="L12">
+      <c r="M26">
         <v>51.988414345070396</v>
       </c>
-      <c r="M12">
+      <c r="N26">
         <v>2342</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>85.862622135886994</v>
       </c>
-      <c r="S12">
+      <c r="T26">
         <v>14.137377864113015</v>
       </c>
-      <c r="T12">
+      <c r="U26">
         <v>2010.9026104224733</v>
       </c>
-      <c r="U12">
+      <c r="V26">
         <v>331.09738957752683</v>
       </c>
-      <c r="V12">
+      <c r="W26">
         <v>43108</v>
       </c>
-      <c r="W12">
+      <c r="X26">
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="27" spans="1:24">
+      <c r="A27">
+        <v>1911</v>
+      </c>
+      <c r="B27">
         <v>43000</v>
       </c>
-      <c r="B13">
+      <c r="C27">
         <v>33020</v>
       </c>
-      <c r="C13">
+      <c r="D27">
         <v>9980</v>
       </c>
-      <c r="D13">
+      <c r="E27">
         <v>840</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>94.52753533209787</v>
       </c>
-      <c r="J13">
+      <c r="K27">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K13">
+      <c r="L27">
         <v>794.03129678962205</v>
       </c>
-      <c r="L13">
+      <c r="M27">
         <v>45.968703210378031</v>
       </c>
-      <c r="M13">
+      <c r="N27">
         <v>2703</v>
       </c>
-      <c r="N13">
+      <c r="O27">
         <v>999</v>
       </c>
-      <c r="O13">
+      <c r="P27">
         <v>154</v>
       </c>
-      <c r="P13">
+      <c r="Q27">
         <v>1550</v>
       </c>
-      <c r="Q13">
+      <c r="R27">
         <v>57.343692193858672</v>
       </c>
-      <c r="R13">
+      <c r="S27">
         <v>86.643538594969641</v>
       </c>
-      <c r="S13">
+      <c r="T27">
         <v>13.356461405030355</v>
       </c>
-      <c r="T13">
+      <c r="U27">
         <v>2341.9748482220293</v>
       </c>
-      <c r="U13">
+      <c r="V27">
         <v>361.02515177797056</v>
       </c>
-      <c r="V13">
+      <c r="W27">
         <v>41137</v>
       </c>
-      <c r="W13">
+      <c r="X27">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="28" spans="1:24">
+      <c r="A28">
+        <v>1912</v>
+      </c>
+      <c r="B28">
         <v>45000</v>
       </c>
-      <c r="B14">
+      <c r="C28">
         <v>34695</v>
       </c>
-      <c r="C14">
+      <c r="D28">
         <v>10305</v>
       </c>
-      <c r="D14">
+      <c r="E28">
         <v>1026</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>94.52753533209787</v>
       </c>
-      <c r="J14">
+      <c r="K28">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K14">
+      <c r="L28">
         <v>969.85251250732415</v>
       </c>
-      <c r="L14">
+      <c r="M28">
         <v>56.147487492676021</v>
       </c>
-      <c r="M14">
+      <c r="N28">
         <v>2913</v>
       </c>
-      <c r="N14">
+      <c r="O28">
         <v>2239</v>
       </c>
-      <c r="O14">
+      <c r="P28">
         <v>355</v>
       </c>
-      <c r="P14">
+      <c r="Q28">
         <v>319</v>
       </c>
-      <c r="Q14">
+      <c r="R28">
         <v>10.950909715070374</v>
       </c>
-      <c r="R14">
+      <c r="S28">
         <v>86.314572089437164</v>
       </c>
-      <c r="S14">
+      <c r="T28">
         <v>13.685427910562836</v>
       </c>
-      <c r="T14">
+      <c r="U28">
         <v>2514.3434849653045</v>
       </c>
-      <c r="U14">
+      <c r="V28">
         <v>398.65651503469542</v>
       </c>
-      <c r="V14">
+      <c r="W28">
         <v>43113</v>
       </c>
-      <c r="W14">
+      <c r="X28">
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="29" spans="1:24">
+      <c r="A29">
+        <v>1913</v>
+      </c>
+      <c r="B29">
         <v>44000</v>
       </c>
-      <c r="B15">
+      <c r="C29">
         <v>34065</v>
       </c>
-      <c r="C15">
+      <c r="D29">
         <v>9935</v>
       </c>
-      <c r="D15">
+      <c r="E29">
         <v>970</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>94.52753533209787</v>
       </c>
-      <c r="J15">
+      <c r="K29">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K15">
+      <c r="L29">
         <v>916.91709272134926</v>
       </c>
-      <c r="L15">
+      <c r="M29">
         <v>53.082907278650822</v>
       </c>
-      <c r="M15">
+      <c r="N29">
         <v>3031</v>
       </c>
-      <c r="N15">
+      <c r="O29">
         <v>2441</v>
       </c>
-      <c r="O15">
+      <c r="P29">
         <v>384</v>
       </c>
-      <c r="P15">
+      <c r="Q29">
         <v>206</v>
       </c>
-      <c r="Q15">
+      <c r="R29">
         <v>6.7964368195315084</v>
       </c>
-      <c r="R15">
+      <c r="S29">
         <v>86.407079646017706</v>
       </c>
-      <c r="S15">
+      <c r="T29">
         <v>13.592920353982301</v>
       </c>
-      <c r="T15">
+      <c r="U29">
         <v>2618.9985840707968</v>
       </c>
-      <c r="U15">
+      <c r="V29">
         <v>412.00141592920357</v>
       </c>
-      <c r="V15">
+      <c r="W29">
         <v>41939</v>
       </c>
-      <c r="W15">
+      <c r="X29">
         <v>431</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="30" spans="1:24">
+      <c r="A30">
+        <v>1914</v>
+      </c>
+      <c r="B30">
         <v>40500</v>
       </c>
-      <c r="B16">
+      <c r="C30">
         <v>31481</v>
       </c>
-      <c r="C16">
+      <c r="D30">
         <v>9019</v>
       </c>
-      <c r="D16">
+      <c r="E30">
         <v>919</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>94.52753533209787</v>
       </c>
-      <c r="J16">
+      <c r="K30">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K16">
+      <c r="L30">
         <v>868.70804970197935</v>
       </c>
-      <c r="L16">
+      <c r="M30">
         <v>50.29195029802073</v>
       </c>
-      <c r="M16">
+      <c r="N30">
         <v>2095</v>
       </c>
-      <c r="N16">
+      <c r="O30">
         <v>1707</v>
       </c>
-      <c r="O16">
+      <c r="P30">
         <v>237</v>
       </c>
-      <c r="P16">
+      <c r="Q30">
         <v>151</v>
       </c>
-      <c r="Q16">
+      <c r="R30">
         <v>7.2076372315035799</v>
       </c>
-      <c r="R16">
+      <c r="S30">
         <v>87.808641975308632</v>
       </c>
-      <c r="S16">
+      <c r="T30">
         <v>12.191358024691358</v>
       </c>
-      <c r="T16">
+      <c r="U30">
         <v>1839.5910493827159</v>
       </c>
-      <c r="U16">
+      <c r="V30">
         <v>255.40895061728395</v>
       </c>
-      <c r="V16">
+      <c r="W30">
         <v>39324</v>
       </c>
-      <c r="W16">
+      <c r="X30">
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="31" spans="1:24">
+      <c r="A31">
+        <v>1915</v>
+      </c>
+      <c r="B31">
         <v>37012</v>
       </c>
-      <c r="B17">
+      <c r="C31">
         <v>29485</v>
       </c>
-      <c r="C17">
+      <c r="D31">
         <v>7527</v>
       </c>
-      <c r="D17">
+      <c r="E31">
         <v>1060</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>94.52753533209787</v>
       </c>
-      <c r="J17">
+      <c r="K31">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K17">
+      <c r="L31">
         <v>1001.9918745202374</v>
       </c>
-      <c r="L17">
+      <c r="M31">
         <v>58.008125479762754</v>
       </c>
-      <c r="M17">
+      <c r="N31">
         <v>1300</v>
       </c>
-      <c r="N17">
+      <c r="O31">
         <v>1056</v>
       </c>
-      <c r="O17">
+      <c r="P31">
         <v>159</v>
       </c>
-      <c r="P17">
+      <c r="Q31">
         <v>85</v>
       </c>
-      <c r="Q17">
+      <c r="R31">
         <v>6.5384615384615392</v>
       </c>
-      <c r="R17">
+      <c r="S31">
         <v>86.913580246913583</v>
       </c>
-      <c r="S17">
+      <c r="T31">
         <v>13.086419753086421</v>
       </c>
-      <c r="T17">
+      <c r="U31">
         <v>1129.8765432098764</v>
       </c>
-      <c r="U17">
+      <c r="V31">
         <v>170.12345679012347</v>
       </c>
-      <c r="V17">
+      <c r="W31">
         <v>36772</v>
       </c>
-      <c r="W17">
+      <c r="X31">
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="32" spans="1:24">
+      <c r="A32">
+        <v>1916</v>
+      </c>
+      <c r="B32">
         <v>39807</v>
       </c>
-      <c r="B18">
+      <c r="C32">
         <v>31332</v>
       </c>
-      <c r="C18">
+      <c r="D32">
         <v>8475</v>
       </c>
-      <c r="D18">
+      <c r="E32">
         <v>1227</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>94.52753533209787</v>
       </c>
-      <c r="J18">
+      <c r="K32">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K18">
+      <c r="L32">
         <v>1159.8528585248409</v>
       </c>
-      <c r="L18">
+      <c r="M32">
         <v>67.147141475159344</v>
       </c>
-      <c r="M18">
+      <c r="N32">
         <v>1285</v>
       </c>
-      <c r="N18">
+      <c r="O32">
         <v>1095</v>
       </c>
-      <c r="O18">
+      <c r="P32">
         <v>94</v>
       </c>
-      <c r="P18">
+      <c r="Q32">
         <v>96</v>
       </c>
-      <c r="Q18">
+      <c r="R32">
         <v>7.4708171206225682</v>
       </c>
-      <c r="R18">
+      <c r="S32">
         <v>92.094196804036997</v>
       </c>
-      <c r="S18">
+      <c r="T32">
         <v>7.9058031959629949</v>
       </c>
-      <c r="T18">
+      <c r="U32">
         <v>1183.4104289318755</v>
       </c>
-      <c r="U18">
+      <c r="V32">
         <v>101.58957106812449</v>
       </c>
-      <c r="V18">
+      <c r="W32">
         <v>39749</v>
       </c>
-      <c r="W18">
+      <c r="X32">
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="33" spans="1:25">
+      <c r="A33">
+        <v>1917</v>
+      </c>
+      <c r="B33">
         <v>35831</v>
       </c>
-      <c r="B19">
+      <c r="C33">
         <v>29174</v>
       </c>
-      <c r="C19">
+      <c r="D33">
         <v>6657</v>
       </c>
-      <c r="D19">
+      <c r="E33">
         <v>1204</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>94.52753533209787</v>
       </c>
-      <c r="J19">
+      <c r="K33">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K19">
+      <c r="L33">
         <v>1138.1115253984583</v>
       </c>
-      <c r="L19">
+      <c r="M33">
         <v>65.888474601541844</v>
       </c>
-      <c r="M19">
+      <c r="N33">
         <v>1169</v>
       </c>
-      <c r="N19">
+      <c r="O33">
         <v>969</v>
       </c>
-      <c r="O19">
+      <c r="P33">
         <v>137</v>
       </c>
-      <c r="P19">
+      <c r="Q33">
         <v>63</v>
       </c>
-      <c r="Q19">
+      <c r="R33">
         <v>5.3892215568862278</v>
       </c>
-      <c r="R19">
+      <c r="S33">
         <v>87.613019891500912</v>
       </c>
-      <c r="S19">
+      <c r="T33">
         <v>12.386980108499095</v>
       </c>
-      <c r="T19">
+      <c r="U33">
         <v>1024.1962025316457</v>
       </c>
-      <c r="U19">
+      <c r="V33">
         <v>144.80379746835445</v>
       </c>
-      <c r="V19">
+      <c r="W33">
         <v>35866</v>
       </c>
-      <c r="W19">
+      <c r="X33">
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="34" spans="1:25">
+      <c r="A34">
+        <v>1918</v>
+      </c>
+      <c r="B34">
         <v>31890</v>
       </c>
-      <c r="B20">
+      <c r="C34">
         <v>25667</v>
       </c>
-      <c r="C20">
+      <c r="D34">
         <v>6223</v>
       </c>
-      <c r="D20">
+      <c r="E34">
         <v>1209</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="H34">
         <v>1206</v>
       </c>
-      <c r="H20">
+      <c r="I34">
         <v>99.75186104218362</v>
       </c>
-      <c r="I20">
+      <c r="J34">
         <v>94.52753533209787</v>
       </c>
-      <c r="J20">
+      <c r="K34">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K20">
+      <c r="L34">
         <v>1142.8379021650633</v>
       </c>
-      <c r="L20">
+      <c r="M34">
         <v>66.162097834936958</v>
       </c>
-      <c r="M20">
+      <c r="N34">
         <v>1093</v>
       </c>
-      <c r="N20">
+      <c r="O34">
         <v>903</v>
       </c>
-      <c r="O20">
+      <c r="P34">
         <v>190</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>82.616651418115282</v>
       </c>
-      <c r="S20">
+      <c r="T34">
         <v>17.383348581884722</v>
       </c>
-      <c r="T20">
+      <c r="U34">
         <v>903</v>
       </c>
-      <c r="U20">
+      <c r="V34">
         <v>190</v>
       </c>
-      <c r="V20">
+      <c r="W34">
         <v>32006</v>
       </c>
-      <c r="W20">
+      <c r="X34">
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="35" spans="1:25">
+      <c r="A35">
+        <v>1919</v>
+      </c>
+      <c r="B35">
         <v>34552</v>
       </c>
-      <c r="B21">
+      <c r="C35">
         <v>27407</v>
       </c>
-      <c r="C21">
+      <c r="D35">
         <v>7145</v>
       </c>
-      <c r="D21">
+      <c r="E35">
         <v>1149</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="H35">
         <v>1144</v>
       </c>
-      <c r="H21">
+      <c r="I35">
         <v>99.564838990426466</v>
       </c>
-      <c r="I21">
+      <c r="J35">
         <v>94.52753533209787</v>
       </c>
-      <c r="J21">
+      <c r="K35">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K21">
+      <c r="L35">
         <v>1086.1213809658045</v>
       </c>
-      <c r="L21">
+      <c r="M35">
         <v>62.878619034195665</v>
       </c>
-      <c r="M21">
+      <c r="N35">
         <v>1486</v>
       </c>
-      <c r="N21">
+      <c r="O35">
         <v>1112</v>
       </c>
-      <c r="O21">
+      <c r="P35">
         <v>374</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>74.831763122476445</v>
       </c>
-      <c r="S21">
+      <c r="T35">
         <v>25.168236877523555</v>
       </c>
-      <c r="T21">
+      <c r="U35">
         <v>1112</v>
       </c>
-      <c r="U21">
+      <c r="V35">
         <v>374</v>
       </c>
-      <c r="V21">
+      <c r="W35">
         <v>34215</v>
       </c>
-      <c r="W21">
+      <c r="X35">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="36" spans="1:25">
+      <c r="A36">
+        <v>1920</v>
+      </c>
+      <c r="B36">
         <v>35000</v>
       </c>
-      <c r="B22">
+      <c r="C36">
         <v>27610</v>
       </c>
-      <c r="C22">
+      <c r="D36">
         <v>7390</v>
       </c>
-      <c r="D22">
+      <c r="E36">
         <v>1351</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="H36">
         <v>1339</v>
       </c>
-      <c r="H22">
+      <c r="I36">
         <v>99.111769059955591</v>
       </c>
-      <c r="I22">
+      <c r="J36">
         <v>94.52753533209787</v>
       </c>
-      <c r="J22">
+      <c r="K36">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K22">
+      <c r="L36">
         <v>1277.0670023366422</v>
       </c>
-      <c r="L22">
+      <c r="M36">
         <v>73.932997663357995</v>
       </c>
-      <c r="M22">
+      <c r="N36">
         <v>1712</v>
       </c>
-      <c r="N22">
+      <c r="O36">
         <v>1496</v>
       </c>
-      <c r="O22">
+      <c r="P36">
         <v>216</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>87.383177570093466</v>
       </c>
-      <c r="S22">
+      <c r="T36">
         <v>12.616822429906541</v>
       </c>
-      <c r="T22">
+      <c r="U36">
         <v>1496</v>
       </c>
-      <c r="U22">
+      <c r="V36">
         <v>215.99999999999997</v>
       </c>
-      <c r="V22">
+      <c r="W36">
         <v>34639</v>
       </c>
-      <c r="W22">
+      <c r="X36">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="37" spans="1:25">
+      <c r="A37">
+        <v>1921</v>
+      </c>
+      <c r="B37">
         <v>29000</v>
       </c>
-      <c r="B23">
+      <c r="C37">
         <v>23444</v>
       </c>
-      <c r="C23">
+      <c r="D37">
         <v>5556</v>
       </c>
-      <c r="D23">
+      <c r="E37">
         <v>839</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>9</v>
       </c>
-      <c r="G23">
+      <c r="H37">
         <v>830</v>
       </c>
-      <c r="H23">
+      <c r="I37">
         <v>98.927294398092968</v>
       </c>
-      <c r="I23">
+      <c r="J37">
         <v>94.52753533209787</v>
       </c>
-      <c r="J23">
+      <c r="K37">
         <v>5.4724646679021465</v>
       </c>
-      <c r="K23">
+      <c r="L37">
         <v>793.08602143630105</v>
       </c>
-      <c r="L23">
+      <c r="M37">
         <v>45.913978563699011</v>
       </c>
-      <c r="M23">
+      <c r="N37">
         <v>1338</v>
       </c>
-      <c r="N23">
+      <c r="O37">
         <v>1192</v>
       </c>
-      <c r="O23">
+      <c r="P37">
         <v>146</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>89.088191330343804</v>
       </c>
-      <c r="S23">
+      <c r="T37">
         <v>10.911808669656203</v>
       </c>
-      <c r="T23">
+      <c r="U37">
         <v>1192</v>
       </c>
-      <c r="U23">
+      <c r="V37">
         <v>146</v>
       </c>
-      <c r="V23">
+      <c r="W37">
         <v>28501</v>
       </c>
-      <c r="W23">
+      <c r="X37">
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="38" spans="1:25">
+      <c r="A38">
+        <v>1922</v>
+      </c>
+      <c r="B38">
         <v>35250</v>
       </c>
-      <c r="B24">
+      <c r="C38">
         <v>28922</v>
       </c>
-      <c r="C24">
+      <c r="D38">
         <v>6328</v>
       </c>
-      <c r="D24">
+      <c r="E38">
         <v>1564</v>
       </c>
-      <c r="E24">
+      <c r="F38">
         <v>530</v>
       </c>
-      <c r="F24">
+      <c r="G38">
         <v>24</v>
       </c>
-      <c r="G24">
+      <c r="H38">
         <v>1010</v>
       </c>
-      <c r="H24">
+      <c r="I38">
         <v>64.57800511508951</v>
       </c>
-      <c r="I24">
+      <c r="J38">
         <v>95.667870036101078</v>
       </c>
-      <c r="J24">
+      <c r="K38">
         <v>4.3321299638989164</v>
       </c>
-      <c r="K24">
+      <c r="L38">
         <v>1496.2454873646209</v>
       </c>
-      <c r="L24">
+      <c r="M38">
         <v>67.754512635379044</v>
       </c>
-      <c r="M24">
+      <c r="N38">
         <v>1953</v>
       </c>
-      <c r="N24">
+      <c r="O38">
         <v>1632</v>
       </c>
-      <c r="O24">
+      <c r="P38">
         <v>250</v>
       </c>
-      <c r="P24">
+      <c r="Q38">
         <v>71</v>
       </c>
-      <c r="Q24">
+      <c r="R38">
         <v>3.6354326676907323</v>
       </c>
-      <c r="R24">
+      <c r="S38">
         <v>86.716259298618496</v>
       </c>
-      <c r="S24">
+      <c r="T38">
         <v>13.283740701381509</v>
       </c>
-      <c r="T24">
+      <c r="U38">
         <v>1693.5685441020191</v>
       </c>
-      <c r="U24">
+      <c r="V38">
         <v>259.43145589798087</v>
       </c>
-      <c r="V24">
+      <c r="W38">
         <v>34861</v>
       </c>
-      <c r="W24">
+      <c r="X38">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="39" spans="1:25">
+      <c r="A39">
+        <v>1923</v>
+      </c>
+      <c r="B39">
         <v>41000</v>
       </c>
-      <c r="B25">
+      <c r="C39">
         <v>33220</v>
       </c>
-      <c r="C25">
+      <c r="D39">
         <v>7780</v>
       </c>
-      <c r="D25">
+      <c r="E39">
         <v>1971</v>
       </c>
-      <c r="E25">
+      <c r="F39">
         <v>1868</v>
       </c>
-      <c r="F25">
+      <c r="G39">
         <v>103</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>94.774226281075585</v>
       </c>
-      <c r="J25">
+      <c r="K39">
         <v>5.2257737189244038</v>
       </c>
-      <c r="K25">
+      <c r="L39">
         <v>1867.9999999999998</v>
       </c>
-      <c r="L25">
+      <c r="M39">
         <v>103</v>
       </c>
-      <c r="M25">
+      <c r="N39">
         <v>2466</v>
       </c>
-      <c r="N25">
+      <c r="O39">
         <v>2081</v>
       </c>
-      <c r="O25">
+      <c r="P39">
         <v>316</v>
       </c>
-      <c r="P25">
+      <c r="Q39">
         <v>69</v>
       </c>
-      <c r="Q25">
+      <c r="R39">
         <v>2.7980535279805352</v>
       </c>
-      <c r="R25">
+      <c r="S39">
         <v>86.816854401334993</v>
       </c>
-      <c r="S25">
+      <c r="T39">
         <v>13.183145598664998</v>
       </c>
-      <c r="T25">
+      <c r="U39">
         <v>2140.903629536921</v>
       </c>
-      <c r="U25">
+      <c r="V39">
         <v>325.09637046307881</v>
       </c>
-      <c r="V25">
+      <c r="W39">
         <v>20505</v>
       </c>
-      <c r="W25">
+      <c r="X39">
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="40" spans="1:25">
+      <c r="A40">
+        <v>1924</v>
+      </c>
+      <c r="B40">
         <v>39500</v>
       </c>
-      <c r="B26">
+      <c r="C40">
         <v>31549</v>
       </c>
-      <c r="C26">
+      <c r="D40">
         <v>7951</v>
       </c>
-      <c r="D26">
+      <c r="E40">
         <v>1743</v>
       </c>
-      <c r="E26">
+      <c r="F40">
         <v>1657</v>
       </c>
-      <c r="F26">
+      <c r="G40">
         <v>86</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>95.065978198508319</v>
       </c>
-      <c r="J26">
+      <c r="K40">
         <v>4.9340218014916806</v>
       </c>
-      <c r="K26">
+      <c r="L40">
         <v>1657</v>
       </c>
-      <c r="L26">
+      <c r="M40">
         <v>86</v>
       </c>
-      <c r="M26">
+      <c r="N40">
         <v>2748</v>
       </c>
-      <c r="N26">
+      <c r="O40">
         <v>2320</v>
       </c>
-      <c r="O26">
+      <c r="P40">
         <v>346</v>
       </c>
-      <c r="P26">
+      <c r="Q40">
         <v>82</v>
       </c>
-      <c r="Q26">
+      <c r="R40">
         <v>2.9839883551673942</v>
       </c>
-      <c r="R26">
+      <c r="S40">
         <v>87.021755438859714</v>
       </c>
-      <c r="S26">
+      <c r="T40">
         <v>12.978244561140285</v>
       </c>
-      <c r="T26">
+      <c r="U40">
         <v>2391.3578394598649</v>
       </c>
-      <c r="U26">
+      <c r="V40">
         <v>356.64216054013502</v>
       </c>
-      <c r="V26">
+      <c r="W40">
         <v>38495</v>
       </c>
-      <c r="W26">
+      <c r="X40">
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="41" spans="1:25">
+      <c r="A41">
+        <v>1925</v>
+      </c>
+      <c r="B41">
         <v>41000</v>
       </c>
-      <c r="B27">
+      <c r="C41">
         <v>33284</v>
       </c>
-      <c r="C27">
+      <c r="D41">
         <v>7716</v>
       </c>
-      <c r="D27">
+      <c r="E41">
         <v>1846</v>
       </c>
-      <c r="E27">
+      <c r="F41">
         <v>1735</v>
       </c>
-      <c r="F27">
+      <c r="G41">
         <v>111</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>93.986998916576383</v>
       </c>
-      <c r="J27">
+      <c r="K41">
         <v>6.0130010834236183</v>
       </c>
-      <c r="K27">
+      <c r="L41">
         <v>1735</v>
       </c>
-      <c r="L27">
+      <c r="M41">
         <v>111</v>
       </c>
-      <c r="M27">
+      <c r="N41">
         <v>2612</v>
       </c>
-      <c r="N27">
+      <c r="O41">
         <v>2194</v>
       </c>
-      <c r="O27">
+      <c r="P41">
         <v>373</v>
       </c>
-      <c r="P27">
+      <c r="Q41">
         <v>45</v>
       </c>
-      <c r="Q27">
+      <c r="R41">
         <v>1.7228177641653903</v>
       </c>
-      <c r="R27">
+      <c r="S41">
         <v>85.469419555901837</v>
       </c>
-      <c r="S27">
+      <c r="T41">
         <v>14.530580444098169</v>
       </c>
-      <c r="T27">
+      <c r="U41">
         <v>2232.461238800156</v>
       </c>
-      <c r="U27">
+      <c r="V41">
         <v>379.53876119984415</v>
       </c>
-      <c r="V27">
+      <c r="W41">
         <v>40234</v>
       </c>
-      <c r="W27">
+      <c r="X41">
         <v>347</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="Y41">
+        <v>1.8490113988979264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42">
+        <v>1926</v>
+      </c>
+      <c r="B42">
         <v>39750</v>
       </c>
-      <c r="B28">
+      <c r="C42">
         <v>32078</v>
       </c>
-      <c r="C28">
+      <c r="D42">
         <v>7672</v>
       </c>
-      <c r="D28">
+      <c r="E42">
         <v>1899</v>
       </c>
-      <c r="E28">
+      <c r="F42">
         <v>1776</v>
       </c>
-      <c r="F28">
+      <c r="G42">
         <v>123</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>93.522906793048975</v>
       </c>
-      <c r="J28">
+      <c r="K42">
         <v>6.4770932069510261</v>
       </c>
-      <c r="K28">
+      <c r="L42">
         <v>1776</v>
       </c>
-      <c r="L28">
+      <c r="M42">
         <v>122.99999999999999</v>
       </c>
-      <c r="M28">
+      <c r="N42">
         <v>2826</v>
       </c>
-      <c r="N28">
+      <c r="O42">
         <v>2424</v>
       </c>
-      <c r="O28">
+      <c r="P42">
         <v>361</v>
       </c>
-      <c r="P28">
+      <c r="Q42">
         <v>41</v>
       </c>
-      <c r="Q28">
+      <c r="R42">
         <v>1.4508138711960368</v>
       </c>
-      <c r="R28">
+      <c r="S42">
         <v>87.037701974865357</v>
       </c>
-      <c r="S28">
+      <c r="T42">
         <v>12.962298025134652</v>
       </c>
-      <c r="T28">
+      <c r="U42">
         <v>2459.685457809695</v>
       </c>
-      <c r="U28">
+      <c r="V42">
         <v>366.3145421903053</v>
       </c>
-      <c r="V28">
+      <c r="W42">
         <v>38823</v>
       </c>
-      <c r="W28">
+      <c r="X42">
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="43" spans="1:25">
+      <c r="A43">
+        <v>1927</v>
+      </c>
+      <c r="B43">
         <v>37250</v>
       </c>
-      <c r="B29">
+      <c r="C43">
         <v>29975</v>
       </c>
-      <c r="C29">
+      <c r="D43">
         <v>7275</v>
       </c>
-      <c r="D29">
+      <c r="E43">
         <v>1745</v>
       </c>
-      <c r="E29">
+      <c r="F43">
         <v>1634</v>
       </c>
-      <c r="F29">
+      <c r="G43">
         <v>111</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>93.638968481375358</v>
       </c>
-      <c r="J29">
+      <c r="K43">
         <v>6.3610315186246424</v>
       </c>
-      <c r="K29">
+      <c r="L43">
         <v>1634</v>
       </c>
-      <c r="L29">
+      <c r="M43">
         <v>111</v>
       </c>
-      <c r="M29">
+      <c r="N43">
         <v>3063</v>
       </c>
-      <c r="N29">
+      <c r="O43">
         <v>2609</v>
       </c>
-      <c r="O29">
+      <c r="P43">
         <v>418</v>
       </c>
-      <c r="P29">
+      <c r="Q43">
         <v>36</v>
       </c>
-      <c r="Q29">
+      <c r="R43">
         <v>1.1753183153770812</v>
       </c>
-      <c r="R29">
+      <c r="S43">
         <v>86.190948133465483</v>
       </c>
-      <c r="S29">
+      <c r="T43">
         <v>13.809051866534523</v>
       </c>
-      <c r="T29">
+      <c r="U43">
         <v>2640.0287413280475</v>
       </c>
-      <c r="U29">
+      <c r="V43">
         <v>422.9712586719524</v>
       </c>
-      <c r="V29">
+      <c r="W43">
         <v>35932</v>
       </c>
-      <c r="W29">
+      <c r="X43">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="44" spans="1:25">
+      <c r="A44">
+        <v>1928</v>
+      </c>
+      <c r="B44">
         <v>36750</v>
       </c>
-      <c r="B30">
+      <c r="C44">
         <v>29852</v>
       </c>
-      <c r="C30">
+      <c r="D44">
         <v>6898</v>
       </c>
-      <c r="D30">
+      <c r="E44">
         <v>1468</v>
       </c>
-      <c r="E30">
+      <c r="F44">
         <v>1372</v>
       </c>
-      <c r="F30">
+      <c r="G44">
         <v>96</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>93.460490463215265</v>
       </c>
-      <c r="J30">
+      <c r="K44">
         <v>6.5395095367847409</v>
       </c>
-      <c r="K30">
+      <c r="L44">
         <v>1372</v>
       </c>
-      <c r="L30">
+      <c r="M44">
         <v>95.999999999999986</v>
       </c>
-      <c r="M30">
+      <c r="N44">
         <v>3244</v>
       </c>
-      <c r="N30">
+      <c r="O44">
         <v>2739</v>
       </c>
-      <c r="O30">
+      <c r="P44">
         <v>484</v>
       </c>
-      <c r="P30">
+      <c r="Q44">
         <v>21</v>
       </c>
-      <c r="Q30">
+      <c r="R44">
         <v>0.64734895191122066</v>
       </c>
-      <c r="R30">
+      <c r="S44">
         <v>84.982935153583611</v>
       </c>
-      <c r="S30">
+      <c r="T44">
         <v>15.017064846416382</v>
       </c>
-      <c r="T30">
+      <c r="U44">
         <v>2756.8464163822523</v>
       </c>
-      <c r="U30">
+      <c r="V44">
         <v>487.15358361774742</v>
       </c>
-      <c r="V30">
+      <c r="W44">
         <v>34974</v>
       </c>
-      <c r="W30">
+      <c r="X44">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="45" spans="1:25">
+      <c r="A45">
+        <v>1929</v>
+      </c>
+      <c r="B45">
         <v>38745</v>
       </c>
-      <c r="B31">
+      <c r="C45">
         <v>30836</v>
       </c>
-      <c r="C31">
+      <c r="D45">
         <v>7909</v>
       </c>
-      <c r="D31">
+      <c r="E45">
         <v>1543</v>
       </c>
-      <c r="E31">
+      <c r="F45">
         <v>1419</v>
       </c>
-      <c r="F31">
+      <c r="G45">
         <v>124</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>91.963707064160729</v>
       </c>
-      <c r="J31">
+      <c r="K45">
         <v>8.0362929358392741</v>
       </c>
-      <c r="K31">
+      <c r="L45">
         <v>1419</v>
       </c>
-      <c r="L31">
+      <c r="M45">
         <v>124</v>
       </c>
-      <c r="M31">
+      <c r="N45">
         <v>3197</v>
       </c>
-      <c r="N31">
+      <c r="O45">
         <v>2698</v>
       </c>
-      <c r="O31">
+      <c r="P45">
         <v>480</v>
       </c>
-      <c r="P31">
+      <c r="Q45">
         <v>19</v>
       </c>
-      <c r="Q31">
+      <c r="R45">
         <v>0.59430716296527997</v>
       </c>
-      <c r="R31">
+      <c r="S45">
         <v>84.896161107614859</v>
       </c>
-      <c r="S31">
+      <c r="T45">
         <v>15.103838892385149</v>
       </c>
-      <c r="T31">
+      <c r="U45">
         <v>2714.130270610447</v>
       </c>
-      <c r="U31">
+      <c r="V45">
         <v>482.86972938955324</v>
       </c>
-      <c r="V31">
+      <c r="W45">
         <v>37091</v>
       </c>
-      <c r="W31">
+      <c r="X45">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="Y45">
+        <v>34405.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46">
+        <v>1930</v>
+      </c>
+      <c r="B46">
         <v>29358</v>
       </c>
-      <c r="B32">
+      <c r="C46">
         <v>23228</v>
       </c>
-      <c r="C32">
+      <c r="D46">
         <v>6130</v>
       </c>
-      <c r="D32">
+      <c r="E46">
         <v>1219</v>
       </c>
-      <c r="E32">
+      <c r="F46">
         <v>1148</v>
       </c>
-      <c r="F32">
+      <c r="G46">
         <v>40</v>
       </c>
-      <c r="G32">
+      <c r="H46">
         <v>31</v>
       </c>
-      <c r="H32">
+      <c r="I46">
         <v>2.5430680885972108</v>
       </c>
-      <c r="I32">
+      <c r="J46">
         <v>96.632996632996637</v>
       </c>
-      <c r="J32">
+      <c r="K46">
         <v>3.3670033670033672</v>
       </c>
-      <c r="K32">
+      <c r="L46">
         <v>1177.9562289562291</v>
       </c>
-      <c r="L32">
+      <c r="M46">
         <v>41.043771043771045</v>
       </c>
-      <c r="M32">
+      <c r="N46">
         <v>2352</v>
       </c>
-      <c r="N32">
+      <c r="O46">
         <v>1912</v>
       </c>
-      <c r="O32">
+      <c r="P46">
         <v>417</v>
       </c>
-      <c r="P32">
+      <c r="Q46">
         <v>23</v>
       </c>
-      <c r="Q32">
+      <c r="R46">
         <v>0.97789115646258506</v>
       </c>
-      <c r="R32">
+      <c r="S46">
         <v>82.095319879776739</v>
       </c>
-      <c r="S32">
+      <c r="T46">
         <v>17.904680120223269</v>
       </c>
-      <c r="T32">
+      <c r="U46">
         <v>1930.881923572349</v>
       </c>
-      <c r="U32">
+      <c r="V46">
         <v>421.11807642765126</v>
       </c>
-      <c r="V32">
+      <c r="W46">
         <v>28225</v>
       </c>
-      <c r="W32">
+      <c r="X46">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="47" spans="1:25">
+      <c r="A47">
+        <v>1931</v>
+      </c>
+      <c r="B47">
         <v>19997</v>
       </c>
-      <c r="B33">
+      <c r="C47">
         <v>15886</v>
       </c>
-      <c r="C33">
+      <c r="D47">
         <v>4111</v>
       </c>
-      <c r="D33">
+      <c r="E47">
         <v>749</v>
       </c>
-      <c r="E33">
+      <c r="F47">
         <v>702</v>
       </c>
-      <c r="F33">
+      <c r="G47">
         <v>25</v>
       </c>
-      <c r="G33">
+      <c r="H47">
         <v>22</v>
       </c>
-      <c r="H33">
+      <c r="I47">
         <v>2.9372496662216285</v>
       </c>
-      <c r="I33">
+      <c r="J47">
         <v>96.561210453920211</v>
       </c>
-      <c r="J33">
+      <c r="K47">
         <v>3.4387895460797795</v>
       </c>
-      <c r="K33">
+      <c r="L47">
         <v>723.24346629986235</v>
       </c>
-      <c r="L33">
+      <c r="M47">
         <v>25.756533700137549</v>
       </c>
-      <c r="M33">
+      <c r="N47">
         <v>1701</v>
       </c>
-      <c r="N33">
+      <c r="O47">
         <v>1353</v>
       </c>
-      <c r="O33">
+      <c r="P47">
         <v>334</v>
       </c>
-      <c r="P33">
+      <c r="Q47">
         <v>14</v>
       </c>
-      <c r="Q33">
+      <c r="R47">
         <v>0.82304526748971196</v>
       </c>
-      <c r="R33">
+      <c r="S47">
         <v>80.201541197391819</v>
       </c>
-      <c r="S33">
+      <c r="T47">
         <v>19.798458802608181</v>
       </c>
-      <c r="T33">
+      <c r="U47">
         <v>1364.228215767635</v>
       </c>
-      <c r="U33">
+      <c r="V47">
         <v>336.77178423236518</v>
       </c>
-      <c r="V33">
+      <c r="W47">
         <v>19045</v>
       </c>
-      <c r="W33">
+      <c r="X47">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="48" spans="1:25">
+      <c r="A48">
+        <v>1932</v>
+      </c>
+      <c r="B48">
         <v>13524</v>
       </c>
-      <c r="B34">
+      <c r="C48">
         <v>10802</v>
       </c>
-      <c r="C34">
+      <c r="D48">
         <v>2722</v>
       </c>
-      <c r="D34">
+      <c r="E48">
         <v>381</v>
       </c>
-      <c r="E34">
+      <c r="F48">
         <v>352</v>
       </c>
-      <c r="F34">
+      <c r="G48">
         <v>15</v>
       </c>
-      <c r="G34">
+      <c r="H48">
         <v>14</v>
       </c>
-      <c r="H34">
+      <c r="I48">
         <v>3.674540682414698</v>
       </c>
-      <c r="I34">
+      <c r="J48">
         <v>95.912806539509532</v>
       </c>
-      <c r="J34">
+      <c r="K48">
         <v>4.0871934604904636</v>
       </c>
-      <c r="K34">
+      <c r="L48">
         <v>365.42779291553131</v>
       </c>
-      <c r="L34">
+      <c r="M48">
         <v>15.572207084468667</v>
       </c>
-      <c r="M34">
+      <c r="N48">
         <v>1156</v>
       </c>
-      <c r="N34">
+      <c r="O48">
         <v>911</v>
       </c>
-      <c r="O34">
+      <c r="P48">
         <v>241</v>
       </c>
-      <c r="P34">
+      <c r="Q48">
         <v>4</v>
       </c>
-      <c r="Q34">
+      <c r="R48">
         <v>0.34602076124567477</v>
       </c>
-      <c r="R34">
+      <c r="S48">
         <v>79.079861111111114</v>
       </c>
-      <c r="S34">
+      <c r="T48">
         <v>20.920138888888889</v>
       </c>
-      <c r="T34">
+      <c r="U48">
         <v>914.16319444444446</v>
       </c>
-      <c r="U34">
+      <c r="V48">
         <v>241.83680555555557</v>
       </c>
-      <c r="V34">
+      <c r="W48">
         <v>12749</v>
       </c>
-      <c r="W34">
+      <c r="X48">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>1933</v>
+      </c>
+      <c r="B49">
         <v>17151</v>
       </c>
-      <c r="B35">
+      <c r="C49">
         <v>13786</v>
       </c>
-      <c r="C35">
+      <c r="D49">
         <v>3365</v>
       </c>
-      <c r="D35">
+      <c r="E49">
         <v>359</v>
       </c>
-      <c r="E35">
+      <c r="F49">
         <v>309</v>
       </c>
-      <c r="F35">
+      <c r="G49">
         <v>27</v>
       </c>
-      <c r="G35">
+      <c r="H49">
         <v>23</v>
       </c>
-      <c r="H35">
+      <c r="I49">
         <v>6.4066852367688023</v>
       </c>
-      <c r="I35">
+      <c r="J49">
         <v>91.964285714285722</v>
       </c>
-      <c r="J35">
+      <c r="K49">
         <v>8.0357142857142865</v>
       </c>
-      <c r="K35">
+      <c r="L49">
         <v>330.15178571428572</v>
       </c>
-      <c r="L35">
+      <c r="M49">
         <v>28.848214285714288</v>
       </c>
-      <c r="M35">
+      <c r="N49">
         <v>1281</v>
       </c>
-      <c r="N35">
+      <c r="O49">
         <v>986</v>
       </c>
-      <c r="O35">
+      <c r="P49">
         <v>294</v>
       </c>
-      <c r="P35">
+      <c r="Q49">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="R49">
         <v>7.8064012490242002E-2</v>
       </c>
-      <c r="R35">
+      <c r="S49">
         <v>77.03125</v>
       </c>
-      <c r="S35">
+      <c r="T49">
         <v>22.96875</v>
       </c>
-      <c r="T35">
+      <c r="U49">
         <v>986.77031249999993</v>
       </c>
-      <c r="U35">
+      <c r="V49">
         <v>294.22968750000001</v>
       </c>
-      <c r="V35">
+      <c r="W49">
         <v>16229</v>
       </c>
-      <c r="W35">
+      <c r="X49">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>1934</v>
+      </c>
+      <c r="B50">
         <v>18826</v>
       </c>
-      <c r="B36">
+      <c r="C50">
         <v>14618</v>
       </c>
-      <c r="C36">
+      <c r="D50">
         <v>4208</v>
       </c>
-      <c r="D36">
+      <c r="E50">
         <v>287</v>
       </c>
-      <c r="E36">
+      <c r="F50">
         <v>244</v>
       </c>
-      <c r="F36">
+      <c r="G50">
         <v>22</v>
       </c>
-      <c r="G36">
+      <c r="H50">
         <v>21</v>
       </c>
-      <c r="H36">
+      <c r="I50">
         <v>7.3170731707317067</v>
       </c>
-      <c r="I36">
+      <c r="J50">
         <v>91.729323308270665</v>
       </c>
-      <c r="J36">
+      <c r="K50">
         <v>8.2706766917293226</v>
       </c>
-      <c r="K36">
+      <c r="L50">
         <v>263.26315789473682</v>
       </c>
-      <c r="L36">
+      <c r="M50">
         <v>23.736842105263158</v>
       </c>
-      <c r="M36">
+      <c r="N50">
         <v>1349</v>
       </c>
-      <c r="N36">
+      <c r="O50">
         <v>1063</v>
       </c>
-      <c r="O36">
+      <c r="P50">
         <v>284</v>
       </c>
-      <c r="P36">
+      <c r="Q50">
         <v>2</v>
       </c>
-      <c r="Q36">
+      <c r="R50">
         <v>0.14825796886582654</v>
       </c>
-      <c r="R36">
+      <c r="S50">
         <v>78.916109873793616</v>
       </c>
-      <c r="S36">
+      <c r="T50">
         <v>21.083890126206384</v>
       </c>
-      <c r="T36">
+      <c r="U50">
         <v>1064.5783221974759</v>
       </c>
-      <c r="U36">
+      <c r="V50">
         <v>284.42167780252413</v>
       </c>
-      <c r="V36">
+      <c r="W50">
         <v>17764</v>
       </c>
-      <c r="W36">
+      <c r="X50">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>1935</v>
+      </c>
+      <c r="B51">
         <v>22944</v>
       </c>
-      <c r="B37">
+      <c r="C51">
         <v>18196</v>
       </c>
-      <c r="C37">
+      <c r="D51">
         <v>4748</v>
       </c>
-      <c r="D37">
+      <c r="E51">
         <v>438</v>
       </c>
-      <c r="E37">
+      <c r="F51">
         <v>380</v>
       </c>
-      <c r="F37">
+      <c r="G51">
         <v>58</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>86.757990867579906</v>
       </c>
-      <c r="J37">
+      <c r="K51">
         <v>13.24200913242009</v>
       </c>
-      <c r="K37">
+      <c r="L51">
         <v>380</v>
       </c>
-      <c r="L37">
+      <c r="M51">
         <v>58</v>
       </c>
-      <c r="M37">
+      <c r="N51">
         <v>1313</v>
       </c>
-      <c r="N37">
+      <c r="O51">
         <v>1003</v>
       </c>
-      <c r="O37">
+      <c r="P51">
         <v>307</v>
       </c>
-      <c r="P37">
+      <c r="Q51">
         <v>3</v>
       </c>
-      <c r="Q37">
+      <c r="R51">
         <v>0.22848438690022849</v>
       </c>
-      <c r="R37">
+      <c r="S51">
         <v>76.564885496183223</v>
       </c>
-      <c r="S37">
+      <c r="T51">
         <v>23.435114503816795</v>
       </c>
-      <c r="T37">
+      <c r="U51">
         <v>1005.2969465648857</v>
       </c>
-      <c r="U37">
+      <c r="V51">
         <v>307.7030534351145</v>
       </c>
-      <c r="V37">
+      <c r="W51">
         <v>23649</v>
       </c>
-      <c r="W37">
+      <c r="X51">
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>1936</v>
+      </c>
+      <c r="B52">
         <v>27626</v>
       </c>
-      <c r="B38">
+      <c r="C52">
         <v>22025</v>
       </c>
-      <c r="C38">
+      <c r="D52">
         <v>5601</v>
       </c>
-      <c r="D38">
+      <c r="E52">
         <v>662</v>
       </c>
-      <c r="E38">
+      <c r="F52">
         <v>570</v>
       </c>
-      <c r="F38">
+      <c r="G52">
         <v>92</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>86.102719033232631</v>
       </c>
-      <c r="J38">
+      <c r="K52">
         <v>13.897280966767372</v>
       </c>
-      <c r="K38">
+      <c r="L52">
         <v>570</v>
       </c>
-      <c r="L38">
+      <c r="M52">
         <v>92</v>
       </c>
-      <c r="M38">
+      <c r="N52">
         <v>1284</v>
       </c>
-      <c r="N38">
+      <c r="O52">
         <v>947</v>
       </c>
-      <c r="O38">
+      <c r="P52">
         <v>335</v>
       </c>
-      <c r="P38">
+      <c r="Q52">
         <v>2</v>
       </c>
-      <c r="Q38">
+      <c r="R52">
         <v>0.1557632398753894</v>
       </c>
-      <c r="R38">
+      <c r="S52">
         <v>73.868954758190327</v>
       </c>
-      <c r="S38">
+      <c r="T52">
         <v>26.131045241809673</v>
       </c>
-      <c r="T38">
+      <c r="U52">
         <v>948.47737909516388</v>
       </c>
-      <c r="U38">
+      <c r="V52">
         <v>335.52262090483623</v>
       </c>
-      <c r="V38">
+      <c r="W52">
         <v>25699</v>
       </c>
-      <c r="W38">
+      <c r="X52">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>1937</v>
+      </c>
+      <c r="B53">
         <v>29004</v>
       </c>
-      <c r="B39">
+      <c r="C53">
         <v>23148</v>
       </c>
-      <c r="C39">
+      <c r="D53">
         <v>5856</v>
       </c>
-      <c r="D39">
+      <c r="E53">
         <v>688</v>
       </c>
-      <c r="E39">
+      <c r="F53">
         <v>573</v>
       </c>
-      <c r="F39">
+      <c r="G53">
         <v>114</v>
       </c>
-      <c r="G39">
+      <c r="H53">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="I53">
         <v>0.14534883720930233</v>
       </c>
-      <c r="I39">
+      <c r="J53">
         <v>83.406113537117903</v>
       </c>
-      <c r="J39">
+      <c r="K53">
         <v>16.593886462882093</v>
       </c>
-      <c r="K39">
+      <c r="L53">
         <v>573.83406113537114</v>
       </c>
-      <c r="L39">
+      <c r="M53">
         <v>114.1659388646288</v>
       </c>
-      <c r="M39">
+      <c r="N53">
         <v>1443</v>
       </c>
-      <c r="N39">
+      <c r="O53">
         <v>1056</v>
       </c>
-      <c r="O39">
+      <c r="P53">
         <v>384</v>
       </c>
-      <c r="P39">
+      <c r="Q53">
         <v>3</v>
       </c>
-      <c r="Q39">
+      <c r="R53">
         <v>0.20790020790020791</v>
       </c>
-      <c r="R39">
+      <c r="S53">
         <v>73.333333333333343</v>
       </c>
-      <c r="S39">
+      <c r="T53">
         <v>26.666666666666668</v>
       </c>
-      <c r="T39">
+      <c r="U53">
         <v>1058.2</v>
       </c>
-      <c r="U39">
+      <c r="V53">
         <v>384.8</v>
       </c>
-      <c r="V39">
+      <c r="W53">
         <v>25044</v>
       </c>
-      <c r="W39">
+      <c r="X53">
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>1938</v>
+      </c>
+      <c r="B54">
         <v>24825</v>
       </c>
-      <c r="B40">
+      <c r="C54">
         <v>19955</v>
       </c>
-      <c r="C40">
+      <c r="D54">
         <v>4870</v>
       </c>
-      <c r="D40">
+      <c r="E54">
         <v>530</v>
       </c>
-      <c r="E40">
+      <c r="F54">
         <v>459</v>
       </c>
-      <c r="F40">
+      <c r="G54">
         <v>70</v>
       </c>
-      <c r="G40">
+      <c r="H54">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="I54">
         <v>0.18867924528301888</v>
       </c>
-      <c r="I40">
+      <c r="J54">
         <v>86.767485822306242</v>
       </c>
-      <c r="J40">
+      <c r="K54">
         <v>13.232514177693762</v>
       </c>
-      <c r="K40">
+      <c r="L54">
         <v>459.8676748582231</v>
       </c>
-      <c r="L40">
+      <c r="M54">
         <v>70.132325141776946</v>
       </c>
-      <c r="M40">
+      <c r="N54">
         <v>977</v>
       </c>
-      <c r="N40">
+      <c r="O54">
         <v>709</v>
       </c>
-      <c r="O40">
+      <c r="P54">
         <v>266</v>
       </c>
-      <c r="P40">
+      <c r="Q54">
         <v>2</v>
       </c>
-      <c r="Q40">
+      <c r="R54">
         <v>0.20470829068577279</v>
       </c>
-      <c r="R40">
+      <c r="S54">
         <v>72.717948717948715</v>
       </c>
-      <c r="S40">
+      <c r="T54">
         <v>27.282051282051277</v>
       </c>
-      <c r="T40">
+      <c r="U54">
         <v>710.45435897435891</v>
       </c>
-      <c r="U40">
+      <c r="V54">
         <v>266.54564102564098</v>
       </c>
-      <c r="V40">
+      <c r="W54">
         <v>23648</v>
       </c>
-      <c r="W40">
+      <c r="X54">
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>1939</v>
+      </c>
+      <c r="B55">
         <v>28755</v>
       </c>
-      <c r="B41">
+      <c r="C55">
         <v>23291</v>
       </c>
-      <c r="C41">
+      <c r="D55">
         <v>5464</v>
       </c>
-      <c r="D41">
+      <c r="E55">
         <v>718</v>
       </c>
-      <c r="E41">
+      <c r="F55">
         <v>605</v>
       </c>
-      <c r="F41">
+      <c r="G55">
         <v>102</v>
       </c>
-      <c r="G41">
+      <c r="H55">
         <v>11</v>
       </c>
-      <c r="H41">
+      <c r="I55">
         <v>1.532033426183844</v>
       </c>
-      <c r="I41">
+      <c r="J55">
         <v>85.572842998585571</v>
       </c>
-      <c r="J41">
+      <c r="K55">
         <v>14.427157001414425</v>
       </c>
-      <c r="K41">
+      <c r="L55">
         <v>614.41301272984447</v>
       </c>
-      <c r="L41">
+      <c r="M55">
         <v>103.58698727015557</v>
       </c>
-      <c r="M41">
+      <c r="N55">
         <v>1104</v>
       </c>
-      <c r="N41">
+      <c r="O55">
         <v>828</v>
       </c>
-      <c r="O41">
+      <c r="P55">
         <v>254</v>
       </c>
-      <c r="P41">
+      <c r="Q55">
         <v>22</v>
       </c>
-      <c r="Q41">
+      <c r="R55">
         <v>1.9927536231884055</v>
       </c>
-      <c r="R41">
+      <c r="S55">
         <v>76.52495378927911</v>
       </c>
-      <c r="S41">
+      <c r="T55">
         <v>23.475046210720887</v>
       </c>
-      <c r="T41">
+      <c r="U55">
         <v>844.8354898336413</v>
       </c>
-      <c r="U41">
+      <c r="V55">
         <v>259.16451016635858</v>
       </c>
-      <c r="V41">
+      <c r="W55">
         <v>28409</v>
       </c>
-      <c r="W41">
+      <c r="X55">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="56" spans="1:24">
+      <c r="A56">
+        <v>1940</v>
+      </c>
+      <c r="B56">
         <v>31159</v>
       </c>
-      <c r="B42">
+      <c r="C56">
         <v>25622</v>
       </c>
-      <c r="C42">
+      <c r="D56">
         <v>5537</v>
       </c>
-      <c r="D42">
+      <c r="E56">
         <v>740</v>
       </c>
-      <c r="E42">
+      <c r="F56">
         <v>607</v>
       </c>
-      <c r="F42">
+      <c r="G56">
         <v>117</v>
       </c>
-      <c r="G42">
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="H42">
+      <c r="I56">
         <v>2.1621621621621623</v>
       </c>
-      <c r="I42">
+      <c r="J56">
         <v>83.839779005524846</v>
       </c>
-      <c r="J42">
+      <c r="K56">
         <v>16.160220994475139</v>
       </c>
-      <c r="K42">
+      <c r="L56">
         <v>620.41436464088395</v>
       </c>
-      <c r="L42">
+      <c r="M56">
         <v>119.58563535911603</v>
       </c>
-      <c r="M42">
+      <c r="N56">
         <v>972</v>
       </c>
-      <c r="N42">
+      <c r="O56">
         <v>748</v>
       </c>
-      <c r="O42">
+      <c r="P56">
         <v>168</v>
       </c>
-      <c r="P42">
+      <c r="Q56">
         <v>56</v>
       </c>
-      <c r="Q42">
+      <c r="R56">
         <v>5.761316872427984</v>
       </c>
-      <c r="R42">
+      <c r="S56">
         <v>81.659388646288207</v>
       </c>
-      <c r="S42">
+      <c r="T56">
         <v>18.34061135371179</v>
       </c>
-      <c r="T42">
+      <c r="U56">
         <v>793.72925764192144</v>
       </c>
-      <c r="U42">
+      <c r="V56">
         <v>178.27074235807859</v>
       </c>
-      <c r="V42">
+      <c r="W56">
         <v>34307</v>
       </c>
-      <c r="W42">
+      <c r="X56">
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="57" spans="1:24">
+      <c r="A57">
+        <v>1941</v>
+      </c>
+      <c r="B57">
         <v>36538</v>
       </c>
-      <c r="B43">
+      <c r="C57">
         <v>29867</v>
       </c>
-      <c r="C43">
+      <c r="D57">
         <v>6671</v>
       </c>
-      <c r="D43">
+      <c r="E57">
         <v>1361</v>
       </c>
-      <c r="E43">
+      <c r="F57">
         <v>1183</v>
       </c>
-      <c r="F43">
+      <c r="G57">
         <v>167</v>
       </c>
-      <c r="G43">
+      <c r="H57">
         <v>11</v>
       </c>
-      <c r="H43">
+      <c r="I57">
         <v>0.80822924320352685</v>
       </c>
-      <c r="I43">
+      <c r="J57">
         <v>87.629629629629633</v>
       </c>
-      <c r="J43">
+      <c r="K57">
         <v>12.37037037037037</v>
       </c>
-      <c r="K43">
+      <c r="L57">
         <v>1192.6392592592592</v>
       </c>
-      <c r="L43">
+      <c r="M57">
         <v>168.36074074074074</v>
       </c>
-      <c r="M43">
+      <c r="N57">
         <v>693</v>
       </c>
-      <c r="N43">
+      <c r="O57">
         <v>509</v>
       </c>
-      <c r="O43">
+      <c r="P57">
         <v>146</v>
       </c>
-      <c r="P43">
+      <c r="Q57">
         <v>38</v>
       </c>
-      <c r="Q43">
+      <c r="R57">
         <v>5.4834054834054831</v>
       </c>
-      <c r="R43">
+      <c r="S57">
         <v>77.709923664122144</v>
       </c>
-      <c r="S43">
+      <c r="T57">
         <v>22.290076335877863</v>
       </c>
-      <c r="T43">
+      <c r="U57">
         <v>538.52977099236648</v>
       </c>
-      <c r="U43">
+      <c r="V57">
         <v>154.47022900763358</v>
       </c>
-      <c r="V43">
+      <c r="W57">
         <v>30228</v>
       </c>
-      <c r="W43">
+      <c r="X57">
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>1942</v>
+      </c>
+      <c r="B58">
         <v>36332</v>
       </c>
-      <c r="B44">
+      <c r="C58">
         <v>29510</v>
       </c>
-      <c r="C44">
+      <c r="D58">
         <v>6822</v>
       </c>
-      <c r="D44">
+      <c r="E58">
         <v>1540</v>
       </c>
-      <c r="E44">
+      <c r="F58">
         <v>1396</v>
       </c>
-      <c r="F44">
+      <c r="G58">
         <v>114</v>
       </c>
-      <c r="G44">
+      <c r="H58">
         <v>30</v>
       </c>
-      <c r="H44">
+      <c r="I58">
         <v>1.948051948051948</v>
       </c>
-      <c r="I44">
+      <c r="J58">
         <v>92.450331125827816</v>
       </c>
-      <c r="J44">
+      <c r="K58">
         <v>7.5496688741721858</v>
       </c>
-      <c r="K44">
+      <c r="L58">
         <v>1423.7350993377484</v>
       </c>
-      <c r="L44">
+      <c r="M58">
         <v>116.26490066225166</v>
       </c>
-      <c r="M44">
+      <c r="N58">
         <v>463</v>
       </c>
-      <c r="N44">
+      <c r="O58">
         <v>285</v>
       </c>
-      <c r="O44">
+      <c r="P58">
         <v>96</v>
       </c>
-      <c r="P44">
+      <c r="Q58">
         <v>82</v>
       </c>
-      <c r="Q44">
+      <c r="R58">
         <v>17.710583153347731</v>
       </c>
-      <c r="R44">
+      <c r="S58">
         <v>74.803149606299201</v>
       </c>
-      <c r="S44">
+      <c r="T58">
         <v>25.196850393700789</v>
       </c>
-      <c r="T44">
+      <c r="U58">
         <v>346.33858267716528</v>
       </c>
-      <c r="U44">
+      <c r="V58">
         <v>116.66141732283464</v>
       </c>
-      <c r="V44">
+      <c r="W58">
         <v>43873</v>
       </c>
-      <c r="W44">
+      <c r="X58">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>1943</v>
+      </c>
+      <c r="B59">
         <v>34289</v>
       </c>
-      <c r="B45">
+      <c r="C59">
         <v>26917</v>
       </c>
-      <c r="C45">
+      <c r="D59">
         <v>7372</v>
       </c>
-      <c r="D45">
+      <c r="E59">
         <v>856</v>
       </c>
-      <c r="E45">
+      <c r="F59">
         <v>704</v>
       </c>
-      <c r="F45">
+      <c r="G59">
         <v>135</v>
       </c>
-      <c r="G45">
+      <c r="H59">
         <v>17</v>
       </c>
-      <c r="H45">
+      <c r="I59">
         <v>1.9859813084112148</v>
       </c>
-      <c r="I45">
+      <c r="J59">
         <v>83.909415971394509</v>
       </c>
-      <c r="J45">
+      <c r="K59">
         <v>16.090584028605484</v>
       </c>
-      <c r="K45">
+      <c r="L59">
         <v>718.26460071513702</v>
       </c>
-      <c r="L45">
+      <c r="M59">
         <v>137.73539928486295</v>
       </c>
-      <c r="M45">
+      <c r="N59">
         <v>310</v>
       </c>
-      <c r="N45">
+      <c r="O59">
         <v>201</v>
       </c>
-      <c r="O45">
+      <c r="P59">
         <v>77</v>
       </c>
-      <c r="P45">
+      <c r="Q59">
         <v>32</v>
       </c>
-      <c r="Q45">
+      <c r="R59">
         <v>10.32258064516129</v>
       </c>
-      <c r="R45">
+      <c r="S59">
         <v>72.302158273381295</v>
       </c>
-      <c r="S45">
+      <c r="T59">
         <v>27.697841726618705</v>
       </c>
-      <c r="T45">
+      <c r="U59">
         <v>224.136690647482</v>
       </c>
-      <c r="U45">
+      <c r="V59">
         <v>85.863309352517987</v>
       </c>
-      <c r="V45">
+      <c r="W59">
         <v>38735</v>
       </c>
-      <c r="W45">
+      <c r="X59">
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>1944</v>
+      </c>
+      <c r="B60">
         <v>32938</v>
       </c>
-      <c r="B46">
+      <c r="C60">
         <v>25160</v>
       </c>
-      <c r="C46">
+      <c r="D60">
         <v>7778</v>
       </c>
-      <c r="D46">
+      <c r="E60">
         <v>1000</v>
       </c>
-      <c r="E46">
+      <c r="F60">
         <v>819</v>
       </c>
-      <c r="F46">
+      <c r="G60">
         <v>159</v>
       </c>
-      <c r="G46">
+      <c r="H60">
         <v>22</v>
       </c>
-      <c r="H46">
+      <c r="I60">
         <v>2.1999999999999997</v>
       </c>
-      <c r="I46">
+      <c r="J60">
         <v>83.74233128834355</v>
       </c>
-      <c r="J46">
+      <c r="K60">
         <v>16.257668711656443</v>
       </c>
-      <c r="K46">
+      <c r="L60">
         <v>837.42331288343553</v>
       </c>
-      <c r="L46">
+      <c r="M60">
         <v>162.57668711656441</v>
       </c>
-      <c r="M46">
+      <c r="N60">
         <v>360</v>
       </c>
-      <c r="N46">
+      <c r="O60">
         <v>235</v>
       </c>
-      <c r="O46">
+      <c r="P60">
         <v>96</v>
       </c>
-      <c r="P46">
+      <c r="Q60">
         <v>29</v>
       </c>
-      <c r="Q46">
+      <c r="R60">
         <v>8.0555555555555554</v>
       </c>
-      <c r="R46">
+      <c r="S60">
         <v>70.99697885196376</v>
       </c>
-      <c r="S46">
+      <c r="T60">
         <v>29.003021148036254</v>
       </c>
-      <c r="T46">
+      <c r="U60">
         <v>255.58912386706956</v>
       </c>
-      <c r="U46">
+      <c r="V60">
         <v>104.41087613293053</v>
       </c>
-      <c r="V46">
+      <c r="W60">
         <v>34630</v>
       </c>
-      <c r="W46">
+      <c r="X60">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>1945</v>
+      </c>
+      <c r="B61">
         <v>28122</v>
       </c>
-      <c r="B47">
+      <c r="C61">
         <v>21140</v>
       </c>
-      <c r="C47">
+      <c r="D61">
         <v>6982</v>
       </c>
-      <c r="D47">
+      <c r="E61">
         <v>1063</v>
       </c>
-      <c r="E47">
+      <c r="F61">
         <v>882</v>
       </c>
-      <c r="F47">
+      <c r="G61">
         <v>164</v>
       </c>
-      <c r="G47">
+      <c r="H61">
         <v>17</v>
       </c>
-      <c r="H47">
+      <c r="I61">
         <v>1.5992474129821261</v>
       </c>
-      <c r="I47">
+      <c r="J61">
         <v>84.321223709369036</v>
       </c>
-      <c r="J47">
+      <c r="K61">
         <v>15.678776290630976</v>
       </c>
-      <c r="K47">
+      <c r="L61">
         <v>896.33460803059279</v>
       </c>
-      <c r="L47">
+      <c r="M61">
         <v>166.6653919694073</v>
       </c>
-      <c r="M47">
+      <c r="N61">
         <v>435</v>
       </c>
-      <c r="N47">
+      <c r="O61">
         <v>289</v>
       </c>
-      <c r="O47">
+      <c r="P61">
         <v>117</v>
       </c>
-      <c r="P47">
+      <c r="Q61">
         <v>29</v>
       </c>
-      <c r="Q47">
+      <c r="R61">
         <v>6.666666666666667</v>
       </c>
-      <c r="R47">
+      <c r="S61">
         <v>71.182266009852228</v>
       </c>
-      <c r="S47">
+      <c r="T61">
         <v>28.817733990147779</v>
       </c>
-      <c r="T47">
+      <c r="U61">
         <v>309.64285714285717</v>
       </c>
-      <c r="U47">
+      <c r="V61">
         <v>125.35714285714285</v>
       </c>
-      <c r="V47">
+      <c r="W61">
         <v>30595</v>
       </c>
-      <c r="W47">
+      <c r="X61">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="62" spans="1:24">
+      <c r="A62">
+        <v>1946</v>
+      </c>
+      <c r="B62">
         <v>34112</v>
       </c>
-      <c r="B48">
+      <c r="C62">
         <v>25856</v>
       </c>
-      <c r="C48">
+      <c r="D62">
         <v>8256</v>
       </c>
-      <c r="D48">
+      <c r="E62">
         <v>1239</v>
       </c>
-      <c r="E48">
+      <c r="F62">
         <v>1020</v>
       </c>
-      <c r="F48">
+      <c r="G62">
         <v>206</v>
       </c>
-      <c r="G48">
+      <c r="H62">
         <v>13</v>
       </c>
-      <c r="H48">
+      <c r="I62">
         <v>1.0492332526230832</v>
       </c>
-      <c r="I48">
+      <c r="J62">
         <v>83.19738988580751</v>
       </c>
-      <c r="J48">
+      <c r="K62">
         <v>16.802610114192493</v>
       </c>
-      <c r="K48">
+      <c r="L62">
         <v>1030.8156606851551</v>
       </c>
-      <c r="L48">
+      <c r="M62">
         <v>208.18433931484498</v>
       </c>
-      <c r="M48">
+      <c r="N62">
         <v>649</v>
       </c>
-      <c r="N48">
+      <c r="O62">
         <v>518</v>
       </c>
-      <c r="O48">
+      <c r="P62">
         <v>98</v>
       </c>
-      <c r="P48">
+      <c r="Q62">
         <v>33</v>
       </c>
-      <c r="Q48">
+      <c r="R62">
         <v>5.0847457627118651</v>
       </c>
-      <c r="R48">
+      <c r="S62">
         <v>84.090909090909093</v>
       </c>
-      <c r="S48">
+      <c r="T62">
         <v>15.90909090909091</v>
       </c>
-      <c r="T48">
+      <c r="U62">
         <v>545.75</v>
       </c>
-      <c r="U48">
+      <c r="V62">
         <v>103.25</v>
       </c>
-      <c r="V48">
+      <c r="W62">
         <v>33498</v>
       </c>
-      <c r="W48">
+      <c r="X62">
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="63" spans="1:24">
+      <c r="A63">
+        <v>1947</v>
+      </c>
+      <c r="B63">
         <v>35404</v>
       </c>
-      <c r="B49">
+      <c r="C63">
         <v>27937</v>
       </c>
-      <c r="C49">
+      <c r="D63">
         <v>7467</v>
       </c>
-      <c r="D49">
+      <c r="E63">
         <v>1311</v>
       </c>
-      <c r="E49">
+      <c r="F63">
         <v>1092</v>
       </c>
-      <c r="F49">
+      <c r="G63">
         <v>214</v>
       </c>
-      <c r="G49">
+      <c r="H63">
         <v>5</v>
       </c>
-      <c r="H49">
+      <c r="I63">
         <v>0.38138825324180015</v>
       </c>
-      <c r="I49">
+      <c r="J63">
         <v>83.61408882082695</v>
       </c>
-      <c r="J49">
+      <c r="K63">
         <v>16.38591117917305</v>
       </c>
-      <c r="K49">
+      <c r="L63">
         <v>1096.1807044410414</v>
       </c>
-      <c r="L49">
+      <c r="M63">
         <v>214.81929555895866</v>
       </c>
-      <c r="M49">
+      <c r="N63">
         <v>1352</v>
       </c>
-      <c r="N49">
+      <c r="O63">
         <v>972</v>
       </c>
-      <c r="O49">
+      <c r="P63">
         <v>186</v>
       </c>
-      <c r="P49">
+      <c r="Q63">
         <v>194</v>
       </c>
-      <c r="Q49">
+      <c r="R63">
         <v>14.349112426035504</v>
       </c>
-      <c r="R49">
+      <c r="S63">
         <v>83.937823834196891</v>
       </c>
-      <c r="S49">
+      <c r="T63">
         <v>16.062176165803109</v>
       </c>
-      <c r="T49">
+      <c r="U63">
         <v>1134.8393782383419</v>
       </c>
-      <c r="U49">
+      <c r="V63">
         <v>217.16062176165806</v>
       </c>
-      <c r="V49">
+      <c r="W63">
         <v>33663</v>
       </c>
-      <c r="W49">
+      <c r="X63">
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="64" spans="1:24">
+      <c r="A64">
+        <v>1948</v>
+      </c>
+      <c r="B64">
         <v>37000</v>
       </c>
-      <c r="B50">
+      <c r="C64">
         <v>29600</v>
       </c>
-      <c r="C50">
+      <c r="D64">
         <v>7400</v>
       </c>
-      <c r="D50">
+      <c r="E64">
         <v>1880</v>
       </c>
-      <c r="E50">
+      <c r="F64">
         <v>1652</v>
       </c>
-      <c r="F50">
+      <c r="G64">
         <v>217</v>
       </c>
-      <c r="G50">
+      <c r="H64">
         <v>11</v>
       </c>
-      <c r="H50">
+      <c r="I64">
         <v>0.58510638297872342</v>
       </c>
-      <c r="I50">
+      <c r="J64">
         <v>88.389513108614238</v>
       </c>
-      <c r="J50">
+      <c r="K64">
         <v>11.610486891385767</v>
       </c>
-      <c r="K50">
+      <c r="L64">
         <v>1661.7228464419477</v>
       </c>
-      <c r="L50">
+      <c r="M64">
         <v>218.27715355805242</v>
       </c>
-      <c r="M50">
+      <c r="N64">
         <v>647</v>
       </c>
-      <c r="N50">
+      <c r="O64">
         <v>462</v>
       </c>
-      <c r="O50">
+      <c r="P64">
         <v>88</v>
       </c>
-      <c r="P50">
+      <c r="Q64">
         <v>97</v>
       </c>
-      <c r="Q50">
+      <c r="R64">
         <v>14.992272024729521</v>
       </c>
-      <c r="R50">
+      <c r="S64">
         <v>84</v>
       </c>
-      <c r="S50">
+      <c r="T64">
         <v>16</v>
       </c>
-      <c r="T50">
+      <c r="U64">
         <v>543.48</v>
       </c>
-      <c r="U50">
+      <c r="V64">
         <v>103.52</v>
       </c>
-      <c r="V50">
+      <c r="W64">
         <v>36331</v>
       </c>
-      <c r="W50">
+      <c r="X64">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>1949</v>
+      </c>
+      <c r="B65">
         <v>32176</v>
       </c>
-      <c r="B51">
+      <c r="C65">
         <v>26472</v>
       </c>
-      <c r="C51">
+      <c r="D65">
         <v>5704</v>
       </c>
-      <c r="D51">
+      <c r="E65">
         <v>1574</v>
       </c>
-      <c r="E51">
+      <c r="F65">
         <v>1425</v>
       </c>
-      <c r="F51">
+      <c r="G65">
         <v>137</v>
       </c>
-      <c r="G51">
+      <c r="H65">
         <v>12</v>
       </c>
-      <c r="H51">
+      <c r="I65">
         <v>0.76238881829733163</v>
       </c>
-      <c r="I51">
+      <c r="J65">
         <v>91.229193341869404</v>
       </c>
-      <c r="J51">
+      <c r="K65">
         <v>8.7708066581306028</v>
       </c>
-      <c r="K51">
+      <c r="L65">
         <v>1435.9475032010246</v>
       </c>
-      <c r="L51">
+      <c r="M65">
         <v>138.05249679897568</v>
       </c>
-      <c r="M51">
+      <c r="N65">
         <v>667</v>
       </c>
-      <c r="N51">
+      <c r="O65">
         <v>534</v>
       </c>
-      <c r="O51">
+      <c r="P65">
         <v>133</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>80.059970014992501</v>
       </c>
-      <c r="S51">
+      <c r="T65">
         <v>19.940029985007495</v>
       </c>
-      <c r="T51">
+      <c r="U65">
         <v>534</v>
       </c>
-      <c r="U51">
+      <c r="V65">
         <v>133</v>
       </c>
-      <c r="V51">
+      <c r="W65">
         <v>34402</v>
       </c>
-      <c r="W51">
+      <c r="X65">
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>1950</v>
+      </c>
+      <c r="B66">
         <v>38007</v>
       </c>
-      <c r="B52">
+      <c r="C66">
         <v>30633</v>
       </c>
-      <c r="C52">
+      <c r="D66">
         <v>7374</v>
       </c>
-      <c r="D52">
+      <c r="E66">
         <v>3432</v>
       </c>
-      <c r="E52">
+      <c r="F66">
         <v>3140</v>
       </c>
-      <c r="F52">
+      <c r="G66">
         <v>283</v>
       </c>
-      <c r="G52">
+      <c r="H66">
         <v>9</v>
       </c>
-      <c r="H52">
+      <c r="I66">
         <v>0.26223776223776224</v>
       </c>
-      <c r="I52">
+      <c r="J66">
         <v>91.732398480864745</v>
       </c>
-      <c r="J52">
+      <c r="K66">
         <v>8.2676015191352619</v>
       </c>
-      <c r="K52">
+      <c r="L66">
         <v>3148.255915863278</v>
       </c>
-      <c r="L52">
+      <c r="M66">
         <v>283.74408413672217</v>
       </c>
-      <c r="M52">
+      <c r="N66">
         <v>517</v>
       </c>
-      <c r="N52">
+      <c r="O66">
         <v>407</v>
       </c>
-      <c r="O52">
+      <c r="P66">
         <v>110</v>
       </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
         <v>78.723404255319153</v>
       </c>
-      <c r="S52">
+      <c r="T66">
         <v>21.276595744680851</v>
       </c>
-      <c r="T52">
+      <c r="U66">
         <v>407</v>
       </c>
-      <c r="U52">
+      <c r="V66">
         <v>110</v>
       </c>
-      <c r="V52">
+      <c r="W66">
         <v>40722</v>
       </c>
-      <c r="W52">
+      <c r="X66">
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="67" spans="1:24">
+      <c r="A67">
+        <v>1951</v>
+      </c>
+      <c r="B67">
         <v>37204</v>
       </c>
-      <c r="B53">
+      <c r="C67">
         <v>29493</v>
       </c>
-      <c r="C53">
+      <c r="D67">
         <v>7711</v>
       </c>
-      <c r="D53">
+      <c r="E67">
         <v>2517</v>
       </c>
-      <c r="E53">
+      <c r="F67">
         <v>2260</v>
       </c>
-      <c r="F53">
+      <c r="G67">
         <v>248</v>
       </c>
-      <c r="G53">
+      <c r="H67">
         <v>9</v>
       </c>
-      <c r="H53">
+      <c r="I67">
         <v>0.35756853396901073</v>
       </c>
-      <c r="I53">
+      <c r="J67">
         <v>90.11164274322168</v>
       </c>
-      <c r="J53">
+      <c r="K67">
         <v>9.8883572567783098</v>
       </c>
-      <c r="K53">
+      <c r="L67">
         <v>2268.1100478468898</v>
       </c>
-      <c r="L53">
+      <c r="M67">
         <v>248.88995215311007</v>
       </c>
-      <c r="M53">
+      <c r="N67">
         <v>998</v>
       </c>
-      <c r="N53">
+      <c r="O67">
         <v>876</v>
       </c>
-      <c r="O53">
+      <c r="P67">
         <v>122</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
         <v>87.775551102204403</v>
       </c>
-      <c r="S53">
+      <c r="T67">
         <v>12.224448897795591</v>
       </c>
-      <c r="T53">
+      <c r="U67">
         <v>876</v>
       </c>
-      <c r="U53">
+      <c r="V67">
         <v>122</v>
       </c>
-      <c r="V53">
+      <c r="W67">
         <v>37952</v>
       </c>
-      <c r="W53">
+      <c r="X67">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="68" spans="1:24">
+      <c r="A68">
+        <v>1952</v>
+      </c>
+      <c r="B68">
         <v>37462</v>
       </c>
-      <c r="B54">
+      <c r="C68">
         <v>30234</v>
       </c>
-      <c r="C54">
+      <c r="D68">
         <v>7228</v>
       </c>
-      <c r="D54">
+      <c r="E68">
         <v>2487</v>
       </c>
-      <c r="E54">
+      <c r="F68">
         <v>2267</v>
       </c>
-      <c r="F54">
+      <c r="G68">
         <v>215</v>
       </c>
-      <c r="G54">
+      <c r="H68">
         <v>5</v>
       </c>
-      <c r="H54">
+      <c r="I68">
         <v>0.20104543626859669</v>
       </c>
-      <c r="I54">
+      <c r="J68">
         <v>91.337630942788081</v>
       </c>
-      <c r="J54">
+      <c r="K68">
         <v>8.6623690572119258</v>
       </c>
-      <c r="K54">
+      <c r="L68">
         <v>2271.5668815471395</v>
       </c>
-      <c r="L54">
+      <c r="M68">
         <v>215.43311845286058</v>
       </c>
-      <c r="M54">
+      <c r="N68">
         <v>735</v>
       </c>
-      <c r="N54">
+      <c r="O68">
         <v>566</v>
       </c>
-      <c r="O54">
+      <c r="P68">
         <v>162</v>
       </c>
-      <c r="P54">
+      <c r="Q68">
         <v>7</v>
       </c>
-      <c r="Q54">
+      <c r="R68">
         <v>0.95238095238095244</v>
       </c>
-      <c r="R54">
+      <c r="S68">
         <v>77.747252747252745</v>
       </c>
-      <c r="S54">
+      <c r="T68">
         <v>22.252747252747255</v>
       </c>
-      <c r="T54">
+      <c r="U68">
         <v>571.44230769230774</v>
       </c>
-      <c r="U54">
+      <c r="V68">
         <v>163.55769230769232</v>
       </c>
-      <c r="V54">
+      <c r="W68">
         <v>39618</v>
       </c>
-      <c r="W54">
+      <c r="X68">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="69" spans="1:24">
+      <c r="A69">
+        <v>1953</v>
+      </c>
+      <c r="B69">
         <v>36742</v>
       </c>
-      <c r="B55">
+      <c r="C69">
         <v>29562</v>
       </c>
-      <c r="C55">
+      <c r="D69">
         <v>7180</v>
       </c>
-      <c r="D55">
+      <c r="E69">
         <v>2771</v>
       </c>
-      <c r="E55">
+      <c r="F69">
         <v>2527</v>
       </c>
-      <c r="F55">
+      <c r="G69">
         <v>233</v>
       </c>
-      <c r="G55">
+      <c r="H69">
         <v>11</v>
       </c>
-      <c r="H55">
+      <c r="I69">
         <v>0.39696860339227719</v>
       </c>
-      <c r="I55">
+      <c r="J69">
         <v>91.55797101449275</v>
       </c>
-      <c r="J55">
+      <c r="K69">
         <v>8.4420289855072479</v>
       </c>
-      <c r="K55">
+      <c r="L69">
         <v>2537.0713768115938</v>
       </c>
-      <c r="L55">
+      <c r="M69">
         <v>233.92862318840585</v>
       </c>
-      <c r="M55">
+      <c r="N69">
         <v>644</v>
       </c>
-      <c r="N55">
+      <c r="O69">
         <v>513</v>
       </c>
-      <c r="O55">
+      <c r="P69">
         <v>130</v>
       </c>
-      <c r="P55">
+      <c r="Q69">
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="R69">
         <v>0.15527950310559005</v>
       </c>
-      <c r="R55">
+      <c r="S69">
         <v>79.782270606531895</v>
       </c>
-      <c r="S55">
+      <c r="T69">
         <v>20.217729393468119</v>
       </c>
-      <c r="T55">
+      <c r="U69">
         <v>513.7978227060654</v>
       </c>
-      <c r="U55">
+      <c r="V69">
         <v>130.20217729393468</v>
       </c>
-      <c r="V55">
+      <c r="W69">
         <v>30060</v>
       </c>
-      <c r="W55">
+      <c r="X69">
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="70" spans="1:24">
+      <c r="A70">
+        <v>1954</v>
+      </c>
+      <c r="B70">
         <v>36356</v>
       </c>
-      <c r="B56">
+      <c r="C70">
         <v>29282</v>
       </c>
-      <c r="C56">
+      <c r="D70">
         <v>7074</v>
       </c>
-      <c r="D56">
+      <c r="E70">
         <v>3066</v>
       </c>
-      <c r="E56">
+      <c r="F70">
         <v>2855</v>
       </c>
-      <c r="F56">
+      <c r="G70">
         <v>208</v>
       </c>
-      <c r="G56">
+      <c r="H70">
         <v>3</v>
       </c>
-      <c r="H56">
+      <c r="I70">
         <v>9.7847358121330719E-2</v>
       </c>
-      <c r="I56">
+      <c r="J70">
         <v>93.209271955599093</v>
       </c>
-      <c r="J56">
+      <c r="K70">
         <v>6.7907280444009137</v>
       </c>
-      <c r="K56">
+      <c r="L70">
         <v>2857.7962781586684</v>
       </c>
-      <c r="L56">
+      <c r="M70">
         <v>208.203721841332</v>
       </c>
-      <c r="M56">
+      <c r="N70">
         <v>723</v>
       </c>
-      <c r="N56">
+      <c r="O70">
         <v>585</v>
       </c>
-      <c r="O56">
+      <c r="P70">
         <v>133</v>
       </c>
-      <c r="P56">
+      <c r="Q70">
         <v>5</v>
       </c>
-      <c r="Q56">
+      <c r="R70">
         <v>0.69156293222683263</v>
       </c>
-      <c r="R56">
+      <c r="S70">
         <v>81.476323119777149</v>
       </c>
-      <c r="S56">
+      <c r="T70">
         <v>18.523676880222844</v>
       </c>
-      <c r="T56">
+      <c r="U70">
         <v>589.07381615598877</v>
       </c>
-      <c r="U56">
+      <c r="V70">
         <v>133.92618384401118</v>
       </c>
-      <c r="V56">
+      <c r="W70">
         <v>38851</v>
       </c>
-      <c r="W56">
+      <c r="X70">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="71" spans="1:24">
+      <c r="A71">
+        <v>1955</v>
+      </c>
+      <c r="B71">
         <v>37380</v>
       </c>
-      <c r="B57">
+      <c r="C71">
         <v>29815</v>
       </c>
-      <c r="C57">
+      <c r="D71">
         <v>7565</v>
       </c>
-      <c r="D57">
+      <c r="E71">
         <v>3599</v>
       </c>
-      <c r="E57">
+      <c r="F71">
         <v>3327</v>
       </c>
-      <c r="F57">
+      <c r="G71">
         <v>266</v>
       </c>
-      <c r="G57">
+      <c r="H71">
         <v>6</v>
       </c>
-      <c r="H57">
+      <c r="I71">
         <v>0.16671297582661851</v>
       </c>
-      <c r="I57">
+      <c r="J71">
         <v>92.596715836348451</v>
       </c>
-      <c r="J57">
+      <c r="K71">
         <v>7.4032841636515441</v>
       </c>
-      <c r="K57">
+      <c r="L71">
         <v>3332.5558029501808</v>
       </c>
-      <c r="L57">
+      <c r="M71">
         <v>266.44419704981908</v>
       </c>
-      <c r="M57">
+      <c r="N71">
         <v>844</v>
       </c>
-      <c r="N57">
+      <c r="O71">
         <v>652</v>
       </c>
-      <c r="O57">
+      <c r="P71">
         <v>189</v>
       </c>
-      <c r="P57">
+      <c r="Q71">
         <v>3</v>
       </c>
-      <c r="Q57">
+      <c r="R71">
         <v>0.35545023696682465</v>
       </c>
-      <c r="R57">
+      <c r="S71">
         <v>77.526753864447087</v>
       </c>
-      <c r="S57">
+      <c r="T71">
         <v>22.473246135552913</v>
       </c>
-      <c r="T57">
+      <c r="U71">
         <v>654.32580261593341</v>
       </c>
-      <c r="U57">
+      <c r="V71">
         <v>189.67419738406659</v>
       </c>
-      <c r="V57">
+      <c r="W71">
         <v>40332</v>
       </c>
-      <c r="W57">
+      <c r="X71">
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
+    <row r="72" spans="1:24">
+      <c r="A72">
+        <v>1956</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
         <v>3441</v>
       </c>
-      <c r="E58">
+      <c r="F72">
         <v>3165</v>
       </c>
-      <c r="F58">
+      <c r="G72">
         <v>273</v>
       </c>
-      <c r="G58">
+      <c r="H72">
         <v>3</v>
       </c>
-      <c r="H58">
+      <c r="I72">
         <v>8.7183958151700089E-2</v>
       </c>
-      <c r="I58">
+      <c r="J72">
         <v>92.059336823734725</v>
       </c>
-      <c r="J58">
+      <c r="K72">
         <v>7.9406631762652706</v>
       </c>
-      <c r="K58">
+      <c r="L72">
         <v>3167.7617801047118</v>
       </c>
-      <c r="L58">
+      <c r="M72">
         <v>273.23821989528795</v>
       </c>
-      <c r="M58">
+      <c r="N72">
         <v>762</v>
       </c>
-      <c r="N58">
+      <c r="O72">
         <v>545</v>
       </c>
-      <c r="O58">
+      <c r="P72">
         <v>140</v>
       </c>
-      <c r="P58">
+      <c r="Q72">
         <v>77</v>
       </c>
-      <c r="Q58">
+      <c r="R72">
         <v>10.104986876640421</v>
       </c>
-      <c r="R58">
+      <c r="S72">
         <v>79.562043795620454</v>
       </c>
-      <c r="S58">
+      <c r="T72">
         <v>20.437956204379564</v>
       </c>
-      <c r="T58">
+      <c r="U72">
         <v>606.2627737226278</v>
       </c>
-      <c r="U58">
+      <c r="V72">
         <v>155.73722627737229</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>